--- a/tests/db_files/db_asrl.xlsx
+++ b/tests/db_files/db_asrl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="0" windowWidth="18255" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="15120" yWindow="0" windowWidth="18255" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -514,6 +514,12 @@
     <t>COM1</t>
   </si>
   <si>
+    <t>DVM</t>
+  </si>
+  <si>
+    <t>baud_rate=119200; data_bits=7; parity=odd; stop_bits=1.5;;;</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -523,7 +529,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Calibration Period</t>
+      <t xml:space="preserve">Calibration Cycle </t>
     </r>
     <r>
       <rPr>
@@ -533,14 +539,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [years]</t>
-    </r>
-  </si>
-  <si>
-    <t>DVM</t>
-  </si>
-  <si>
-    <t>baud_rate=119200; data_bits=7; parity=odd; stop_bits=1.5;;;</t>
+      <t>[years]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -992,9 +992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>40129</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -1102,7 +1102,7 @@
         <v>40129</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -1130,9 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1184,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1207,7 +1205,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
